--- a/hardware_JSON/Export_2024-05-09_221839.xlsx
+++ b/hardware_JSON/Export_2024-05-09_221839.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -69,61 +69,61 @@
     <t>XR60 5G 9291</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "False", "Hardware_Display Resolution": "False", "Hardware_Ethernet Posts": "2", "Hardware_Sim Type": "Standard/Industrial Mini SIM (2FF)", "Hardware_USB ports": "1", "Hardware_Voltage supply": "7 to 36 VDC", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "Checked", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "Checked", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "Checked", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "False", "DisplayResolution": "False", "Ethernet": "2", "SimType": "Standard/Industrial Mini SIM (2FF)", "Usb": "1", "VoltageSupply": "7 to 36 VDC", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "Checked", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "Checked", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "Checked", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>RE930-2</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": null, "Hardware_Display Resolution": null, "Hardware_Ethernet Posts": "0", "Hardware_Sim Type": "Standard/Industrial Micro SIM (3FF)", "Hardware_USB ports": "1", "Hardware_Voltage supply": "8-14VDC", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": null, "DisplayResolution": null, "Ethernet": "0", "SimType": "Standard/Industrial Micro SIM (3FF)", "Usb": "1", "VoltageSupply": "8-14VDC", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>GL7812</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "False", "Hardware_Display Resolution": "False", "Hardware_Ethernet Posts": "0", "Hardware_Sim Type": "Standard/Industrial Mini SIM (2FF)", "Hardware_USB ports": "1", "Hardware_Voltage supply": "6-24V", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "Checked", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "False", "DisplayResolution": "False", "Ethernet": "0", "SimType": "Standard/Industrial Mini SIM (2FF)", "Usb": "1", "VoltageSupply": "6-24V", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "Checked", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>Inseego MIFI X Pro 5G UW</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "5050 mAh Li-Ion battery (Included)", "Hardware_Display Resolution": "2.4\u0094 IPS color touchscreen display", "Hardware_Ethernet Posts": "1", "Hardware_Sim Type": "Not Applicable", "Hardware_USB ports": "1", "Hardware_Voltage supply": "18W Qualcomm\u00ae Quick Charge\u0099 3.0 charger", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "Checked", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "5050 mAh Li-Ion battery (Included)", "DisplayResolution": "2.4\u0094 IPS color touchscreen display", "Ethernet": "1", "SimType": "Not Applicable", "Usb": "1", "VoltageSupply": "18W Qualcomm\u00ae Quick Charge\u0099 3.0 charger", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "Checked", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>io-key</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "no", "Hardware_Display Resolution": "False", "Hardware_Ethernet Posts": "0", "Hardware_Sim Type": "Standard Nano SIM (4FF)", "Hardware_USB ports": "0", "Hardware_Voltage supply": "24VDC", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "Checked", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "no", "DisplayResolution": "False", "Ethernet": "0", "SimType": "Standard Nano SIM (4FF)", "Usb": "0", "VoltageSupply": "24VDC", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "Checked", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>Kona Micro Gen2 IoT Gateway</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "Optional battery backup", "Hardware_Display Resolution": null, "Hardware_Ethernet Posts": "1", "Hardware_Sim Type": "Standard Nano SIM (4FF)", "Hardware_USB ports": "False", "Hardware_Voltage supply": "12 Vdc", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "Optional battery backup", "DisplayResolution": null, "Ethernet": "1", "SimType": "Standard Nano SIM (4FF)", "Usb": "False", "VoltageSupply": "12 Vdc", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>VT-DCAI-02</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": "False", "Hardware_Display Resolution": "False", "Hardware_Ethernet Posts": "False", "Hardware_Sim Type": "Standard Nano SIM (4FF)", "Hardware_USB ports": "False", "Hardware_Voltage supply": "False", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "Checked", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": "False", "DisplayResolution": "False", "Ethernet": "False", "SimType": "Standard Nano SIM (4FF)", "Usb": "False", "VoltageSupply": "False", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "Checked", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>R5001 CCU</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": null, "Hardware_Display Resolution": null, "Hardware_Ethernet Posts": "3", "Hardware_Sim Type": "SIM1 - Standard/Industrial Micro SIM (3FF)", "Hardware_USB ports": "SIM2 - Standard/Industrial Micro SIM (3FF)", "Hardware_Voltage supply": null, "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "Checked", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "Checked", "Other_GPS": "Checked", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "False", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": null, "DisplayResolution": null, "Ethernet": "3", "SimType": "SIM1 - Standard/Industrial Micro SIM (3FF)", "Usb": "SIM2 - Standard/Industrial Micro SIM (3FF)", "VoltageSupply": null, "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "Checked", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "Checked", "Gps": "Checked", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "False", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>1595WC</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": null, "Hardware_Display Resolution": null, "Hardware_Ethernet Posts": "8", "Hardware_Sim Type": "SIM1 - Standard Nano SIM (4FF)", "Hardware_USB ports": "SIM2 - Standard/Industrial Micro SIM (3FF)", "Hardware_Voltage supply": null, "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "False", "Other_Camera": "False", "Other_Dual SIM": "Checked", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "False", "Other_GPS": "False", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "False", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "Checked", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": null, "DisplayResolution": null, "Ethernet": "8", "SimType": "SIM1 - Standard Nano SIM (4FF)", "Usb": "SIM2 - Standard/Industrial Micro SIM (3FF)", "VoltageSupply": null, "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "False", "Camera": "False", "DualSIM": "Checked", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "False", "Gps": "False", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "False", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "Checked", "Zigbee": "False"}</t>
   </si>
   <si>
     <t>VG710-NRQ3-WLAN</t>
   </si>
   <si>
-    <t>{"Hardware_Antenna": "False", "Hardware_Battery": null, "Hardware_Display Resolution": null, "Hardware_Ethernet Posts": "4", "Hardware_Sim Type": "Standard/Industrial Mini SIM (2FF)", "Hardware_USB ports": "1", "Hardware_Voltage supply": "9-36V DC", "Other_Accelerometer": "False", "Other_Z-Wave": "False", "Other_Audio": "False", "Other_Battery safety": "False", "Other_Bluetooth": "Checked", "Other_Camera": "False", "Other_Dual SIM": "False", "Other_E911": "False", "Other_eUICC": "False", "Other_GNSS": "False", "Other_GPSS": "Checked", "Other_GPS": "Checked", "Other_Keyboard": "False", "Other_Magnetic card reader": "False", "Other_Printer": "False", "Other_RJ-11": "False", "Other_Scanning tech": "False", "Other_Serial": "Checked", "Other_Smart card reader": "False", "Other_Voice transmission capable": "False", "Other_Wifi": "Checked", "Other_Zigbee": "False"}</t>
+    <t>{"Accelerometer": "False", "Battery": null, "DisplayResolution": null, "Ethernet": "4", "SimType": "Standard/Industrial Mini SIM (2FF)", "Usb": "1", "VoltageSupply": "9-36V DC", "Accelerometer.1": "False", "Zwave": "False", "Audio": "False", "BatterySafety": "False", "Bluetooth": "Checked", "Camera": "False", "DualSIM": "False", "E911": "False", "eUiccType": "False", "ExpansionCardSlots": "False", "GNSS": "Checked", "Gps": "Checked", "Keyboard": "False", "MagneticCardReader": "False", "Printer": "False", "RJ11": "False", "ScanningTechnology": "False", "Serial": "Checked", "SmartCardReader": "False", "VoiceTransmissionCapable": "False", "Wifi": "Checked", "Zigbee": "False"}</t>
   </si>
   <si>
     <t/>
@@ -1166,11 +1166,11 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="0" zoomScaleSheetLayoutView="0" showWhiteSpace="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1221,10 +1221,10 @@
       <c r="A2" s="5">
         <v>27843</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1232,10 +1232,10 @@
       <c r="A3" s="5">
         <v>28342</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1243,10 +1243,10 @@
       <c r="A4" s="5">
         <v>27812</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1254,10 +1254,10 @@
       <c r="A5" s="5">
         <v>28487</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1265,10 +1265,10 @@
       <c r="A6" s="5">
         <v>20995</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1276,10 +1276,10 @@
       <c r="A7" s="5">
         <v>21227</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1287,10 +1287,10 @@
       <c r="A8" s="5">
         <v>26560</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1298,10 +1298,10 @@
       <c r="A9" s="5">
         <v>14438</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1309,10 +1309,10 @@
       <c r="A10" s="5">
         <v>24237</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1320,10 +1320,10 @@
       <c r="A11" s="5">
         <v>20939</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
